--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A06A1-E710-419B-A669-6B5AA783710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E16BD-3A94-4242-9251-7AA8A6524A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="855">
   <si>
     <t>ea.uuid</t>
   </si>
@@ -2636,6 +2636,9 @@
   </si>
   <si>
     <t>Contemporary Islamic</t>
+  </si>
+  <si>
+    <t>Dynastic Egypt (Egypt)</t>
   </si>
 </sst>
 </file>
@@ -41648,8 +41651,8 @@
   </sheetPr>
   <dimension ref="A1:X956"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46923,7 +46926,7 @@
         <v>677</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>677</v>
@@ -46965,7 +46968,7 @@
         <v>677</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>677</v>
@@ -47007,7 +47010,7 @@
         <v>677</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>677</v>
@@ -47049,7 +47052,7 @@
         <v>677</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>677</v>
@@ -47091,7 +47094,7 @@
         <v>677</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>677</v>
@@ -47133,7 +47136,7 @@
         <v>677</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>677</v>
@@ -47175,7 +47178,7 @@
         <v>677</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>677</v>
@@ -47217,7 +47220,7 @@
         <v>677</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>677</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E16BD-3A94-4242-9251-7AA8A6524A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFF23C-6B52-4AB9-9236-FD93726D3279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="874">
   <si>
     <t>ea.uuid</t>
   </si>
@@ -2639,6 +2639,63 @@
   </si>
   <si>
     <t>Dynastic Egypt (Egypt)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Umayyad/Abbasid/Fatimid] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>Islamic, Middle [Fatimid/Ayyubid] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Mamluk/Rasulid] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Ottoman] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Early Caliphate/Umayyad] (Iraq)</t>
+  </si>
+  <si>
+    <t>Islamic, Middle [Abbasid] (Iraq)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Post-Abbasid] (Iraq)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Ottoman) (Iraq)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Ummayad/Abbasid] (Iran)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Tahirid/Saffarid/Samanid/Buyids] (Iran)</t>
+  </si>
+  <si>
+    <t>Islamic, Middle [Ghaznavid/Seljuq/Khwarazmshah] (Iran)</t>
+  </si>
+  <si>
+    <t>Islamic, Middle [Mongol/Ilkhanid/Muzaffarid/Jalayrid] (Iran)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Timurid/Safavid/Qajar] (Iran)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Umayyad/Abbasid] (North Africa)</t>
+  </si>
+  <si>
+    <t>Islamic, Middle [Fatimid/Zirid/Hammadid/Almoravid/Almohad] (North Africa)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Ayyubid/Hafsid/Marinid/Zayyanid/Mamluk] (North Africa)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Ottoman/Saadi/Wattasid/Alaouite/Colonial] (North Africa)</t>
+  </si>
+  <si>
+    <t>Pre-Dynastic, Early (Egypt)</t>
+  </si>
+  <si>
+    <t>Pre-Dynastic, Late (Egypt)</t>
   </si>
 </sst>
 </file>
@@ -41651,8 +41708,8 @@
   </sheetPr>
   <dimension ref="A1:X956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41976,7 +42033,7 @@
         <v>503</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>504</v>
+        <v>191</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>505</v>
@@ -42018,7 +42075,7 @@
         <v>503</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>506</v>
+        <v>193</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>507</v>
@@ -42060,7 +42117,7 @@
         <v>503</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>508</v>
+        <v>189</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>509</v>
@@ -42438,7 +42495,7 @@
         <v>525</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>529</v>
@@ -42480,7 +42537,7 @@
         <v>525</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>530</v>
+        <v>343</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>531</v>
@@ -42522,7 +42579,7 @@
         <v>525</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>532</v>
+        <v>345</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>533</v>
@@ -44574,13 +44631,13 @@
         <v>559</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>597</v>
+        <v>5</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>598</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>599</v>
+        <v>872</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>600</v>
@@ -44616,13 +44673,13 @@
         <v>559</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>597</v>
+        <v>5</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>598</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>601</v>
+        <v>873</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>602</v>
@@ -48024,7 +48081,7 @@
         <v>704</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>711</v>
+        <v>379</v>
       </c>
       <c r="F152" s="24" t="s">
         <v>712</v>
@@ -48570,7 +48627,7 @@
         <v>726</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>731</v>
+        <v>325</v>
       </c>
       <c r="F165" s="24" t="s">
         <v>732</v>
@@ -48612,7 +48669,7 @@
         <v>726</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>733</v>
+        <v>331</v>
       </c>
       <c r="F166" s="24" t="s">
         <v>734</v>
@@ -49704,7 +49761,7 @@
         <v>765</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>261</v>
+        <v>855</v>
       </c>
       <c r="F192" s="24" t="s">
         <v>766</v>
@@ -49746,7 +49803,7 @@
         <v>765</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>767</v>
+        <v>856</v>
       </c>
       <c r="F193" s="24" t="s">
         <v>768</v>
@@ -49788,7 +49845,7 @@
         <v>765</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>255</v>
+        <v>857</v>
       </c>
       <c r="F194" s="24" t="s">
         <v>769</v>
@@ -49830,7 +49887,7 @@
         <v>765</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>257</v>
+        <v>858</v>
       </c>
       <c r="F195" s="24" t="s">
         <v>770</v>
@@ -49872,7 +49929,7 @@
         <v>771</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>437</v>
+        <v>859</v>
       </c>
       <c r="F196" s="24" t="s">
         <v>772</v>
@@ -49914,7 +49971,7 @@
         <v>771</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>439</v>
+        <v>860</v>
       </c>
       <c r="F197" s="24" t="s">
         <v>773</v>
@@ -49956,7 +50013,7 @@
         <v>771</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>441</v>
+        <v>861</v>
       </c>
       <c r="F198" s="15" t="s">
         <v>774</v>
@@ -49998,7 +50055,7 @@
         <v>771</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>435</v>
+        <v>862</v>
       </c>
       <c r="F199" s="15" t="s">
         <v>775</v>
@@ -50040,7 +50097,7 @@
         <v>776</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>249</v>
+        <v>863</v>
       </c>
       <c r="F200" s="15" t="s">
         <v>777</v>
@@ -50082,7 +50139,7 @@
         <v>776</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>245</v>
+        <v>864</v>
       </c>
       <c r="F201" s="15" t="s">
         <v>778</v>
@@ -50124,7 +50181,7 @@
         <v>776</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>241</v>
+        <v>865</v>
       </c>
       <c r="F202" s="15" t="s">
         <v>779</v>
@@ -50166,7 +50223,7 @@
         <v>776</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>247</v>
+        <v>866</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>780</v>
@@ -50208,7 +50265,7 @@
         <v>776</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>243</v>
+        <v>867</v>
       </c>
       <c r="F204" s="15" t="s">
         <v>781</v>
@@ -50250,7 +50307,7 @@
         <v>782</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>363</v>
+        <v>868</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>783</v>
@@ -50292,7 +50349,7 @@
         <v>782</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>365</v>
+        <v>869</v>
       </c>
       <c r="F206" s="15" t="s">
         <v>784</v>
@@ -50334,7 +50391,7 @@
         <v>782</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>369</v>
+        <v>870</v>
       </c>
       <c r="F207" s="24" t="s">
         <v>785</v>
@@ -50376,7 +50433,7 @@
         <v>782</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>367</v>
+        <v>871</v>
       </c>
       <c r="F208" s="49" t="s">
         <v>786</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFF23C-6B52-4AB9-9236-FD93726D3279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E7534-6DB5-4447-9B2D-ACA867B2ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -2662,9 +2662,6 @@
     <t>Islamic, Late [Post-Abbasid] (Iraq)</t>
   </si>
   <si>
-    <t>Islamic, Late [Ottoman) (Iraq)</t>
-  </si>
-  <si>
     <t>Islamic, Early [Ummayad/Abbasid] (Iran)</t>
   </si>
   <si>
@@ -2696,6 +2693,9 @@
   </si>
   <si>
     <t>Pre-Dynastic, Late (Egypt)</t>
+  </si>
+  <si>
+    <t>Islamic, Late [Ottoman] (Iraq)</t>
   </si>
 </sst>
 </file>
@@ -41708,8 +41708,8 @@
   </sheetPr>
   <dimension ref="A1:X956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44637,7 +44637,7 @@
         <v>598</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>600</v>
@@ -44679,7 +44679,7 @@
         <v>598</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>602</v>
@@ -50055,7 +50055,7 @@
         <v>771</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="F199" s="15" t="s">
         <v>775</v>
@@ -50097,7 +50097,7 @@
         <v>776</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F200" s="15" t="s">
         <v>777</v>
@@ -50139,7 +50139,7 @@
         <v>776</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F201" s="15" t="s">
         <v>778</v>
@@ -50181,7 +50181,7 @@
         <v>776</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F202" s="15" t="s">
         <v>779</v>
@@ -50223,7 +50223,7 @@
         <v>776</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>780</v>
@@ -50265,7 +50265,7 @@
         <v>776</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F204" s="15" t="s">
         <v>781</v>
@@ -50307,7 +50307,7 @@
         <v>782</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>783</v>
@@ -50349,7 +50349,7 @@
         <v>782</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F206" s="15" t="s">
         <v>784</v>
@@ -50391,7 +50391,7 @@
         <v>782</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F207" s="24" t="s">
         <v>785</v>
@@ -50433,7 +50433,7 @@
         <v>782</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F208" s="49" t="s">
         <v>786</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E7534-6DB5-4447-9B2D-ACA867B2ACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97EC100-8ED6-4DD1-BBD0-5C27CE6EB24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -2641,9 +2641,6 @@
     <t>Dynastic Egypt (Egypt)</t>
   </si>
   <si>
-    <t>Islamic, Early [Umayyad/Abbasid/Fatimid] (Levant/Arabia)</t>
-  </si>
-  <si>
     <t>Islamic, Middle [Fatimid/Ayyubid] (Levant/Arabia)</t>
   </si>
   <si>
@@ -2696,6 +2693,9 @@
   </si>
   <si>
     <t>Islamic, Late [Ottoman] (Iraq)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Umayyad/Abbasid/Fatimid/Crusader] (Levant/Arabia)</t>
   </si>
 </sst>
 </file>
@@ -41709,7 +41709,7 @@
   <dimension ref="A1:X956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+      <selection activeCell="D191" sqref="D191:D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44637,7 +44637,7 @@
         <v>598</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>600</v>
@@ -44679,7 +44679,7 @@
         <v>598</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>602</v>
@@ -49761,7 +49761,7 @@
         <v>765</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="F192" s="24" t="s">
         <v>766</v>
@@ -49803,7 +49803,7 @@
         <v>765</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F193" s="24" t="s">
         <v>768</v>
@@ -49845,7 +49845,7 @@
         <v>765</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F194" s="24" t="s">
         <v>769</v>
@@ -49887,7 +49887,7 @@
         <v>765</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F195" s="24" t="s">
         <v>770</v>
@@ -49929,7 +49929,7 @@
         <v>771</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F196" s="24" t="s">
         <v>772</v>
@@ -49971,7 +49971,7 @@
         <v>771</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F197" s="24" t="s">
         <v>773</v>
@@ -50013,7 +50013,7 @@
         <v>771</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F198" s="15" t="s">
         <v>774</v>
@@ -50055,7 +50055,7 @@
         <v>771</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F199" s="15" t="s">
         <v>775</v>
@@ -50097,7 +50097,7 @@
         <v>776</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F200" s="15" t="s">
         <v>777</v>
@@ -50139,7 +50139,7 @@
         <v>776</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F201" s="15" t="s">
         <v>778</v>
@@ -50181,7 +50181,7 @@
         <v>776</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F202" s="15" t="s">
         <v>779</v>
@@ -50223,7 +50223,7 @@
         <v>776</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>780</v>
@@ -50265,7 +50265,7 @@
         <v>776</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F204" s="15" t="s">
         <v>781</v>
@@ -50307,7 +50307,7 @@
         <v>782</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>783</v>
@@ -50349,7 +50349,7 @@
         <v>782</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F206" s="15" t="s">
         <v>784</v>
@@ -50391,7 +50391,7 @@
         <v>782</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F207" s="24" t="s">
         <v>785</v>
@@ -50433,7 +50433,7 @@
         <v>782</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F208" s="49" t="s">
         <v>786</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97EC100-8ED6-4DD1-BBD0-5C27CE6EB24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B2CBC-C79F-489C-8845-15E9395D33C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -2641,9 +2641,6 @@
     <t>Dynastic Egypt (Egypt)</t>
   </si>
   <si>
-    <t>Islamic, Middle [Fatimid/Ayyubid] (Levant/Arabia)</t>
-  </si>
-  <si>
     <t>Islamic, Late [Mamluk/Rasulid] (Levant/Arabia)</t>
   </si>
   <si>
@@ -2696,6 +2693,9 @@
   </si>
   <si>
     <t>Islamic, Early [Umayyad/Abbasid/Fatimid/Crusader] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>Islamic, Middle [Fatimid/Ayyubid/Crusader] (Levant/Arabia)</t>
   </si>
 </sst>
 </file>
@@ -41709,7 +41709,7 @@
   <dimension ref="A1:X956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191:D192"/>
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44637,7 +44637,7 @@
         <v>598</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>600</v>
@@ -44679,7 +44679,7 @@
         <v>598</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>602</v>
@@ -49761,7 +49761,7 @@
         <v>765</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F192" s="24" t="s">
         <v>766</v>
@@ -49803,7 +49803,7 @@
         <v>765</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="F193" s="24" t="s">
         <v>768</v>
@@ -49845,7 +49845,7 @@
         <v>765</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F194" s="24" t="s">
         <v>769</v>
@@ -49887,7 +49887,7 @@
         <v>765</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F195" s="24" t="s">
         <v>770</v>
@@ -49929,7 +49929,7 @@
         <v>771</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F196" s="24" t="s">
         <v>772</v>
@@ -49971,7 +49971,7 @@
         <v>771</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F197" s="24" t="s">
         <v>773</v>
@@ -50013,7 +50013,7 @@
         <v>771</v>
       </c>
       <c r="E198" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F198" s="15" t="s">
         <v>774</v>
@@ -50055,7 +50055,7 @@
         <v>771</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F199" s="15" t="s">
         <v>775</v>
@@ -50097,7 +50097,7 @@
         <v>776</v>
       </c>
       <c r="E200" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F200" s="15" t="s">
         <v>777</v>
@@ -50139,7 +50139,7 @@
         <v>776</v>
       </c>
       <c r="E201" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F201" s="15" t="s">
         <v>778</v>
@@ -50181,7 +50181,7 @@
         <v>776</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F202" s="15" t="s">
         <v>779</v>
@@ -50223,7 +50223,7 @@
         <v>776</v>
       </c>
       <c r="E203" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F203" s="15" t="s">
         <v>780</v>
@@ -50265,7 +50265,7 @@
         <v>776</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F204" s="15" t="s">
         <v>781</v>
@@ -50307,7 +50307,7 @@
         <v>782</v>
       </c>
       <c r="E205" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F205" s="15" t="s">
         <v>783</v>
@@ -50349,7 +50349,7 @@
         <v>782</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F206" s="15" t="s">
         <v>784</v>
@@ -50391,7 +50391,7 @@
         <v>782</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F207" s="24" t="s">
         <v>785</v>
@@ -50433,7 +50433,7 @@
         <v>782</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F208" s="49" t="s">
         <v>786</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B2CBC-C79F-489C-8845-15E9395D33C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD24F99-5BCF-4735-8E6F-5D3EB3B3D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -2692,10 +2692,10 @@
     <t>Islamic, Late [Ottoman] (Iraq)</t>
   </si>
   <si>
-    <t>Islamic, Early [Umayyad/Abbasid/Fatimid/Crusader] (Levant/Arabia)</t>
-  </si>
-  <si>
     <t>Islamic, Middle [Fatimid/Ayyubid/Crusader] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>Islamic, Early [Umayyad/Abbasid/Fatimid] (Levant/Arabia)</t>
   </si>
 </sst>
 </file>
@@ -41709,7 +41709,7 @@
   <dimension ref="A1:X956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49761,7 +49761,7 @@
         <v>765</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F192" s="24" t="s">
         <v>766</v>
@@ -49803,7 +49803,7 @@
         <v>765</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F193" s="24" t="s">
         <v>768</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD24F99-5BCF-4735-8E6F-5D3EB3B3D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F3547C-2552-4BA0-A6C7-7D68277CDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="877">
   <si>
     <t>ea.uuid</t>
   </si>
@@ -2696,6 +2696,15 @@
   </si>
   <si>
     <t>Islamic, Early [Umayyad/Abbasid/Fatimid] (Levant/Arabia)</t>
+  </si>
+  <si>
+    <t>tpq</t>
+  </si>
+  <si>
+    <t>taq</t>
+  </si>
+  <si>
+    <t>العصر الكلاسيكي/ماقبل الأسلام (الشام/بلاد الرافدين/إيران/شمال اجزيرة العربية)</t>
   </si>
 </sst>
 </file>
@@ -41708,8 +41717,11 @@
   </sheetPr>
   <dimension ref="A1:X956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41748,8 +41760,12 @@
       <c r="F1" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>875</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -48498,7 +48514,7 @@
         <v>61</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E162" s="24" t="s">
         <v>727</v>
@@ -48540,7 +48556,7 @@
         <v>61</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E163" s="32" t="s">
         <v>207</v>
@@ -48582,7 +48598,7 @@
         <v>61</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E164" s="32" t="s">
         <v>205</v>
@@ -48624,7 +48640,7 @@
         <v>61</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E165" s="24" t="s">
         <v>325</v>
@@ -48666,7 +48682,7 @@
         <v>61</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E166" s="24" t="s">
         <v>331</v>
@@ -48708,7 +48724,7 @@
         <v>61</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E167" s="24" t="s">
         <v>327</v>
@@ -48750,7 +48766,7 @@
         <v>61</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E168" s="24" t="s">
         <v>323</v>
@@ -48792,7 +48808,7 @@
         <v>61</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E169" s="24" t="s">
         <v>737</v>
@@ -48834,7 +48850,7 @@
         <v>61</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E170" s="32" t="s">
         <v>416</v>
@@ -48876,7 +48892,7 @@
         <v>61</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E171" s="32" t="s">
         <v>418</v>
@@ -48918,7 +48934,7 @@
         <v>61</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>726</v>
+        <v>876</v>
       </c>
       <c r="E172" s="24" t="s">
         <v>329</v>

--- a/periodo-projects/rdm-bu-period-check.xlsx
+++ b/periodo-projects/rdm-bu-period-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\achp-ch\periodo-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F3547C-2552-4BA0-A6C7-7D68277CDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995CE4E3-4AAE-4FCB-9949-FAC06E5A56B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{EB0504F5-0439-4F99-A5CE-C2C6ED05CFD4}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="878">
   <si>
     <t>ea.uuid</t>
   </si>
@@ -2705,6 +2705,9 @@
   </si>
   <si>
     <t>العصر الكلاسيكي/ماقبل الأسلام (الشام/بلاد الرافدين/إيران/شمال اجزيرة العربية)</t>
+  </si>
+  <si>
+    <t>إسلامي، وسيط (فاطمي/ أيوبي/حملات صليبية) (الشام/ الجزيرة العربية)</t>
   </si>
 </sst>
 </file>
@@ -41718,10 +41721,10 @@
   <dimension ref="A1:X956"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D169" sqref="D169"/>
+      <selection pane="bottomRight" activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49822,7 +49825,7 @@
         <v>872</v>
       </c>
       <c r="F193" s="24" t="s">
-        <v>768</v>
+        <v>877</v>
       </c>
       <c r="G193" s="25">
         <v>1070</v>
